--- a/biology/Médecine/Institut_Pasteur_d'Algérie/Institut_Pasteur_d'Algérie.xlsx
+++ b/biology/Médecine/Institut_Pasteur_d'Algérie/Institut_Pasteur_d'Algérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_Pasteur_d%27Alg%C3%A9rie</t>
+          <t>Institut_Pasteur_d'Algérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut Pasteur d'Algérie est l'un des centres de recherche du réseau international des instituts Pasteur situé à Alger.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_Pasteur_d%27Alg%C3%A9rie</t>
+          <t>Institut_Pasteur_d'Algérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Institut a pour missions : la réalisation d'analyses et de diagnostics, il assure également la surveillance épidémiologique, la recherche, la formation, la production et l'importation et la distribution des principaux vaccins aux établissements de santé et l'élevage d'animaux de laboratoire qui font l'objet d'expériences[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Institut a pour missions : la réalisation d'analyses et de diagnostics, il assure également la surveillance épidémiologique, la recherche, la formation, la production et l'importation et la distribution des principaux vaccins aux établissements de santé et l'élevage d'animaux de laboratoire qui font l'objet d'expériences.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_Pasteur_d%27Alg%C3%A9rie</t>
+          <t>Institut_Pasteur_d'Algérie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Directeurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Baptiste Paulin Trolard (1894-1900)
 Edmond Sergent (1900-1910)
@@ -561,8 +577,8 @@
 Mohamed Tazir (2009-2012)
 Mohamed Mansouri (2012)
 Kamel Kezzal (2012-2016)
-Zoubir Harrat (2016 - mars 2020)[2]
-Fawzi Derrar (depuis mars 2020)[2]</t>
+Zoubir Harrat (2016 - mars 2020)
+Fawzi Derrar (depuis mars 2020)</t>
         </is>
       </c>
     </row>
